--- a/Team02_NinjaScrapers_2023/src/test/resources/IngredientsForHypertension.xlsx
+++ b/Team02_NinjaScrapers_2023/src/test/resources/IngredientsForHypertension.xlsx
@@ -3,21 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{69575604-4096-4C3E-B3B9-4FA23FA3E603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908AA3AA-09E9-44BC-872A-38407EE49847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J23"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>Alcohol</t>
   </si>
@@ -200,6 +201,51 @@
   </si>
   <si>
     <t>TO ADD</t>
+  </si>
+  <si>
+    <t>Allergies</t>
+  </si>
+  <si>
+    <t>milk</t>
+  </si>
+  <si>
+    <t>soy</t>
+  </si>
+  <si>
+    <t>egg</t>
+  </si>
+  <si>
+    <t>sesame</t>
+  </si>
+  <si>
+    <t>shellfish</t>
+  </si>
+  <si>
+    <t>seafood</t>
+  </si>
+  <si>
+    <t>Nut Allergies</t>
+  </si>
+  <si>
+    <t>peanuts</t>
+  </si>
+  <si>
+    <t>walnuts</t>
+  </si>
+  <si>
+    <t>almond</t>
+  </si>
+  <si>
+    <t>hazelnut</t>
+  </si>
+  <si>
+    <t>cashew</t>
+  </si>
+  <si>
+    <t>pecan</t>
+  </si>
+  <si>
+    <t>pistachio</t>
   </si>
 </sst>
 </file>
@@ -704,7 +750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -894,4 +940,109 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B61BFA-C739-440C-B430-C729EE882FFC}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08657796-18F0-4891-A55F-B560228FF0A0}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>